--- a/bin/07_templates/03_ci_templates/UnitTests/command_list.xlsx
+++ b/bin/07_templates/03_ci_templates/UnitTests/command_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Arbeit\04_Github\01_GitLabCI\master\GitLabCI\bin\07_templates\03_ci_templates\UnitTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F821441D-E5C2-478B-83B4-F5A7B11C0593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9FED96-1F42-48F8-9E5B-7834FF1DD233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ci_update_ref</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t> Trigger CI – Only Simulate</t>
+  </si>
+  <si>
+    <t>ci_correct_html</t>
   </si>
 </sst>
 </file>
@@ -397,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,6 +446,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
